--- a/Mdoc testcases v1.xlsx
+++ b/Mdoc testcases v1.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="OPD" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Appointment" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>Change log</t>
   </si>
@@ -41,12 +41,276 @@
   </si>
   <si>
     <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Screen Impacted</t>
+  </si>
+  <si>
+    <t>Database table Impacted</t>
+  </si>
+  <si>
+    <t>Test cases</t>
+  </si>
+  <si>
+    <t>On Page Load</t>
+  </si>
+  <si>
+    <t>Patients</t>
+  </si>
+  <si>
+    <t>My Clinics</t>
+  </si>
+  <si>
+    <t>The screen will appear above</t>
+  </si>
+  <si>
+    <t>OPD</t>
+  </si>
+  <si>
+    <t>In this section:
+* One company logo will display as top left side screen.
+* Profile logo will display as top right side screen.
+* There are two menus section, will be display below of headers
+   - Nevigation (back and Home) will displayed left side 
+   - Menu tabs will displayed right side in screen.
+* My clinic will be displayed of below of menus section.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My clinic </t>
+  </si>
+  <si>
+    <t>My clinic will display selected.</t>
+  </si>
+  <si>
+    <t>On click my clinic is nevigate to patient token grid.</t>
+  </si>
+  <si>
+    <t>In this section:
+&gt;&gt; There are five column and column name as Token No, Patient Name, Mobile No, Patient Present, Legal Issue</t>
+  </si>
+  <si>
+    <t>Grid will appear only current date.</t>
+  </si>
+  <si>
+    <t>Grid is clickable and nevigate to consultation screen</t>
+  </si>
+  <si>
+    <t>Token Grid</t>
+  </si>
+  <si>
+    <t>Consultation Screen</t>
+  </si>
+  <si>
+    <t>Patient Tab</t>
+  </si>
+  <si>
+    <t>Buddy Tab</t>
+  </si>
+  <si>
+    <t>Assessment Tab</t>
+  </si>
+  <si>
+    <t>Symptom</t>
+  </si>
+  <si>
+    <t>In this section:
+&gt;&gt; There are four groups and groups name as 
+* Basic and Biological Function
+* Disorders
+* Past/ Family and Personal History
+* MSE
+&gt;&gt; There is one submit button and Button name as 'Submit Answer' will below right side and button color is blue.</t>
+  </si>
+  <si>
+    <t>on click groups are nevigate to popup screen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nevigate to Basic and Biological function popup </t>
+  </si>
+  <si>
+    <t>Basic and Biological function popup is devided to two groups
+&gt;&gt; Basic
+&gt;&gt; Biological Function</t>
+  </si>
+  <si>
+    <t>REQ Sub groups</t>
+  </si>
+  <si>
+    <t>Basic and Biological Function Group</t>
+  </si>
+  <si>
+    <t>Basic Group</t>
+  </si>
+  <si>
+    <t>In this section:
+* Popup will appears multiple questions
+* There are two buttons name as Save and Reset.</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>user will select under question of question.</t>
+  </si>
+  <si>
+    <t>user will select only one value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user is not select or left questions </t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>Value is reset/blank when user click on reset button.</t>
+  </si>
+  <si>
+    <t>Records are saved when user click on save button</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Biological Function Group</t>
+  </si>
+  <si>
+    <t>Disorders Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nevigate to 'Disorder' popup </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nevigate to 'Disorders' popup </t>
+  </si>
+  <si>
+    <t>Biological function question will appear when user click on Biological Function tab</t>
+  </si>
+  <si>
+    <t>Basic question will appear when user click on Basic tab</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>on click close button than popup is close.</t>
+  </si>
+  <si>
+    <t>popup is three category:
+&gt;&gt; Basic and Biological function will top left side
+&gt;&gt; Sub groups will display mid of popup or below of header section
+&gt;&gt; close button will appears bottom right side of popup.</t>
+  </si>
+  <si>
+    <t>popup is three category:
+&gt;&gt; Disorders will top left side
+&gt;&gt; Sub groups will display mid of popup or below of header section
+&gt;&gt; close button will appears bottom right side of popup.</t>
+  </si>
+  <si>
+    <t>Disorders popup is devided into four sub group
+&gt;&gt; Neurotic Disorder
+&gt;&gt; Substance/ Behavioural addiction
+&gt;&gt; Psychotic Disorders
+&gt;&gt; Developmental disorder/ Dementia</t>
+  </si>
+  <si>
+    <t>Neurotic Disorder Group</t>
+  </si>
+  <si>
+    <t>Neurotic Disorder question will appear when user click on 'Neurotic Disorder ' tab</t>
+  </si>
+  <si>
+    <t>Substance/ Behavioural addiction question will appear when user click on 'Substance/ Behavioural addiction ' tab</t>
+  </si>
+  <si>
+    <t>Psychotic Disorders Group</t>
+  </si>
+  <si>
+    <t>Substance/ Behavioural addiction Group</t>
+  </si>
+  <si>
+    <t>Psychotic Disorders question will appear when user click on 'Psychotic Disorders' tab</t>
+  </si>
+  <si>
+    <t>Developmental disorder/ Dementia Group</t>
+  </si>
+  <si>
+    <t>Developmental disorder/ Dementia question will appear when user click on 'Developmental disorder/ Dementia' tab</t>
+  </si>
+  <si>
+    <t>Past/Family and Personal History Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nevigate to 'Past/Family and Personal History' popup </t>
+  </si>
+  <si>
+    <t>popup is three category:
+&gt;&gt; Past/Family and Personal History will top left side
+&gt;&gt; Sub groups will display mid of popup or below of header section
+&gt;&gt; close button will appears bottom right side of popup.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Past/Family and Personal History popup is devided into two sub group
+&gt;&gt; Past/Family History
+&gt;&gt; Personal History
+</t>
+  </si>
+  <si>
+    <t>Past/Family History Group</t>
+  </si>
+  <si>
+    <t>Past/Family History question will appear when user click on 'Past/Family History ' tab</t>
+  </si>
+  <si>
+    <t>Personal History Group</t>
+  </si>
+  <si>
+    <t>Personal History question will appear when user click on 'Personal History' tab</t>
+  </si>
+  <si>
+    <t>MSE Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nevigate to 'MSE' popup </t>
+  </si>
+  <si>
+    <t>MSE question will appear when user click on MSE tab</t>
+  </si>
+  <si>
+    <t>Submit Answer</t>
+  </si>
+  <si>
+    <t>Records are saved when user click on Submit button</t>
+  </si>
+  <si>
+    <t>In this section:
+1- Patient/ Buddy/ Assessment tab
+2- Symptom
+3- System Diagnosis</t>
+  </si>
+  <si>
+    <t>System Diagnosis</t>
+  </si>
+  <si>
+    <t>System Diagnosis is calculate reports on the basis of symptoms</t>
+  </si>
+  <si>
+    <t>System Diagnosis reports will appears top 3 percentage of symptoms</t>
+  </si>
+  <si>
+    <t>Below 40% not be display in Diagnosis reports</t>
+  </si>
+  <si>
+    <t>Equal or grater then 40% System Diagnosis will be displayed.</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -55,7 +319,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -65,247 +329,29 @@
     </r>
   </si>
   <si>
-    <t>Screen Impacted</t>
-  </si>
-  <si>
-    <t>Database table Impacted</t>
-  </si>
-  <si>
-    <t>Test cases</t>
-  </si>
-  <si>
-    <t>On Page Load</t>
-  </si>
-  <si>
-    <t>Patients</t>
-  </si>
-  <si>
-    <t>My Clinics</t>
-  </si>
-  <si>
-    <t>The screen will appear above</t>
-  </si>
-  <si>
-    <t>OPD</t>
-  </si>
-  <si>
-    <t>In this section:
-* One company logo will display as top left side screen.
-* Profile logo will display as top right side screen.
-* There are two menus section, will be display below of headers
-   - Nevigation (back and Home) will displayed left side 
-   - Menu tabs will displayed right side in screen.
-* My clinic will be displayed of below of menus section.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My clinic </t>
-  </si>
-  <si>
-    <t>My clinic will display selected.</t>
-  </si>
-  <si>
-    <t>On click my clinic is nevigate to patient token grid.</t>
-  </si>
-  <si>
-    <t>In this section:
-&gt;&gt; There are five column and column name as Token No, Patient Name, Mobile No, Patient Present, Legal Issue</t>
-  </si>
-  <si>
-    <t>Grid will appear only current date.</t>
-  </si>
-  <si>
-    <t>Grid is clickable and nevigate to consultation screen</t>
-  </si>
-  <si>
-    <t>Token Grid</t>
-  </si>
-  <si>
-    <t>Consultation Screen</t>
-  </si>
-  <si>
-    <t>Patient Tab</t>
-  </si>
-  <si>
-    <t>Buddy Tab</t>
-  </si>
-  <si>
-    <t>Assessment Tab</t>
-  </si>
-  <si>
-    <t>Symptom</t>
-  </si>
-  <si>
-    <t>In this section:
-&gt;&gt; There are four groups and groups name as 
-* Basic and Biological Function
-* Disorders
-* Past/ Family and Personal History
-* MSE
-&gt;&gt; There is one submit button and Button name as 'Submit Answer' will below right side and button color is blue.</t>
-  </si>
-  <si>
-    <t>on click groups are nevigate to popup screen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nevigate to Basic and Biological function popup </t>
-  </si>
-  <si>
-    <t>In this section:
-1- Patient/ Buddy/ Assessment tab
-2- Symptom
-3- Symptom/ System Diagnosis</t>
-  </si>
-  <si>
-    <t>Basic and Biological function popup is devided to two groups
-&gt;&gt; Basic
-&gt;&gt; Biological Function</t>
-  </si>
-  <si>
-    <t>REQ Sub groups</t>
-  </si>
-  <si>
-    <t>Basic and Biological Function Group</t>
-  </si>
-  <si>
-    <t>Basic Group</t>
-  </si>
-  <si>
-    <t>In this section:
-* Popup will appears multiple questions
-* There are two buttons name as Save and Reset.</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>user will select under question of question.</t>
-  </si>
-  <si>
-    <t>user will select only one value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user is not select or left questions </t>
-  </si>
-  <si>
-    <t>Save</t>
-  </si>
-  <si>
-    <t>Reset</t>
-  </si>
-  <si>
-    <t>Value is reset/blank when user click on reset button.</t>
-  </si>
-  <si>
-    <t>Records are saved when user click on save button</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Biological Function Group</t>
-  </si>
-  <si>
-    <t>Disorders Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nevigate to 'Disorder' popup </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nevigate to 'Disorders' popup </t>
-  </si>
-  <si>
-    <t>Biological function question will appear when user click on Biological Function tab</t>
-  </si>
-  <si>
-    <t>Basic question will appear when user click on Basic tab</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>on click close button than popup is close.</t>
-  </si>
-  <si>
-    <t>popup is three category:
-&gt;&gt; Basic and Biological function will top left side
-&gt;&gt; Sub groups will display mid of popup or below of header section
-&gt;&gt; close button will appears bottom right side of popup.</t>
-  </si>
-  <si>
-    <t>popup is three category:
-&gt;&gt; Disorders will top left side
-&gt;&gt; Sub groups will display mid of popup or below of header section
-&gt;&gt; close button will appears bottom right side of popup.</t>
-  </si>
-  <si>
-    <t>Disorders popup is devided into four sub group
-&gt;&gt; Neurotic Disorder
-&gt;&gt; Substance/ Behavioural addiction
-&gt;&gt; Psychotic Disorders
-&gt;&gt; Developmental disorder/ Dementia</t>
-  </si>
-  <si>
-    <t>Neurotic Disorder Group</t>
-  </si>
-  <si>
-    <t>Neurotic Disorder question will appear when user click on 'Neurotic Disorder ' tab</t>
-  </si>
-  <si>
-    <t>Substance/ Behavioural addiction question will appear when user click on 'Substance/ Behavioural addiction ' tab</t>
-  </si>
-  <si>
-    <t>Psychotic Disorders Group</t>
-  </si>
-  <si>
-    <t>Substance/ Behavioural addiction Group</t>
-  </si>
-  <si>
-    <t>Psychotic Disorders question will appear when user click on 'Psychotic Disorders' tab</t>
-  </si>
-  <si>
-    <t>Developmental disorder/ Dementia Group</t>
-  </si>
-  <si>
-    <t>Developmental disorder/ Dementia question will appear when user click on 'Developmental disorder/ Dementia' tab</t>
-  </si>
-  <si>
-    <t>Past/Family and Personal History Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nevigate to 'Past/Family and Personal History' popup </t>
-  </si>
-  <si>
-    <t>popup is three category:
-&gt;&gt; Past/Family and Personal History will top left side
-&gt;&gt; Sub groups will display mid of popup or below of header section
-&gt;&gt; close button will appears bottom right side of popup.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Past/Family and Personal History popup is devided into two sub group
-&gt;&gt; Past/Family History
-&gt;&gt; Personal History
+    <t>Common Test cases</t>
+  </si>
+  <si>
+    <t>On Page load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check that If the user is not authenticated the url is redirected to Unauthorized page.
+User will be able to see only those screens which are assigned to him.
 </t>
   </si>
   <si>
-    <t>Past/Family History Group</t>
-  </si>
-  <si>
-    <t>Past/Family History question will appear when user click on 'Past/Family History ' tab</t>
-  </si>
-  <si>
-    <t>Personal History Group</t>
-  </si>
-  <si>
-    <t>Personal History question will appear when user click on 'Personal History' tab</t>
-  </si>
-  <si>
-    <t>MSE Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nevigate to 'MSE' popup </t>
-  </si>
-  <si>
-    <t>MSE question will appear when user click on MSE tab</t>
+    <t>PreCondition</t>
+  </si>
+  <si>
+    <t>If there is no internet connectivity, show error message.</t>
+  </si>
+  <si>
+    <t>Supported Browsers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supported Browsers will be:
+• IE 11,chrome in Windows environment
+• Chrome on Mac </t>
   </si>
 </sst>
 </file>
@@ -327,26 +373,26 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,13 +417,40 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -454,46 +527,79 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,13 +714,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3752851</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>1428750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -702,13 +808,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>103218</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3676650</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>1400175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -727,7 +833,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4218018" y="18211800"/>
+          <a:off x="4218018" y="23183850"/>
           <a:ext cx="3573432" cy="1352550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -749,13 +855,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>56458</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3705225</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>1257300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1080,29 +1186,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K118"/>
+  <dimension ref="A1:K129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F115" sqref="F115"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30:G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="12" customWidth="1"/>
-    <col min="3" max="4" width="20.140625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="10" customWidth="1"/>
+    <col min="3" max="4" width="20.140625" style="10" customWidth="1"/>
     <col min="5" max="5" width="57" style="7" customWidth="1"/>
     <col min="6" max="6" width="28.28515625" style="7" customWidth="1"/>
     <col min="7" max="7" width="40.42578125" style="7" customWidth="1"/>
     <col min="8" max="8" width="40" style="7" customWidth="1"/>
     <col min="9" max="9" width="41.140625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" style="14" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" style="11" customWidth="1"/>
     <col min="11" max="11" width="18.140625" style="8" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="25.5">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="42.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1113,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -1131,708 +1237,819 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="13"/>
-    </row>
-    <row r="2" spans="1:11" ht="25.5">
+        <v>45</v>
+      </c>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" ht="30">
       <c r="E2" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:11">
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="E5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="9" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" ht="117.75" customHeight="1">
+      <c r="B15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:11" ht="117.75" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="E16" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" ht="89.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="105">
       <c r="E17" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="C18" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="3:5">
-      <c r="C18" s="12" t="s">
+      <c r="E18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="7" t="s">
+    </row>
+    <row r="19" spans="1:7">
+      <c r="E19" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
-      <c r="E19" s="7" t="s">
+    <row r="20" spans="1:7" ht="45">
+      <c r="C20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="38.25">
-      <c r="C20" s="12" t="s">
+    <row r="21" spans="1:7">
+      <c r="E21" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="E22" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="114.75" customHeight="1"/>
+    <row r="24" spans="1:7">
+      <c r="E24" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="102" customHeight="1">
+      <c r="C25" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5">
-      <c r="E21" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5">
-      <c r="E22" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" ht="114.75" customHeight="1"/>
-    <row r="24" spans="3:5">
-      <c r="E24" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" ht="102" customHeight="1">
-      <c r="C25" s="12" t="s">
+    </row>
+    <row r="26" spans="1:7" ht="60">
+      <c r="E26" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="C27" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="3:5" ht="51">
-      <c r="E26" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5">
-      <c r="C27" s="12" t="s">
+    <row r="28" spans="1:7">
+      <c r="C28" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="3:5">
-      <c r="C28" s="12" t="s">
+    <row r="29" spans="1:7">
+      <c r="C29" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="3:5">
-      <c r="C29" s="12" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" s="23"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="25"/>
+    </row>
+    <row r="31" spans="1:7" ht="120">
+      <c r="C31" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="3:5" ht="102">
-      <c r="C30" s="12" t="s">
+      <c r="E31" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="7" t="s">
+    </row>
+    <row r="32" spans="1:7">
+      <c r="E32" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="3:5">
-      <c r="E31" s="7" t="s">
+    <row r="33" spans="3:5" ht="114" customHeight="1">
+      <c r="C33" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="E34" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="3:5" ht="114" customHeight="1">
-      <c r="C32" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5">
-      <c r="E33" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5" ht="51">
-      <c r="E34" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="4:5" ht="38.25">
+    <row r="35" spans="3:5" ht="75">
       <c r="E35" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="4:5">
-      <c r="D36" s="12" t="s">
-        <v>37</v>
-      </c>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" ht="45">
       <c r="E36" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="4:5" ht="38.25">
+    <row r="37" spans="3:5">
+      <c r="D37" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="E37" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" ht="45">
+      <c r="E38" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5">
+      <c r="D39" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5">
+      <c r="E40" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5">
+      <c r="E41" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="4:5">
-      <c r="D38" s="12" t="s">
+    <row r="42" spans="3:5">
+      <c r="E42" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="D43" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5">
+      <c r="D44" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" ht="30">
+      <c r="D45" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" ht="45">
+      <c r="E46" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" ht="30">
+      <c r="D47" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5">
+      <c r="E48" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="4:5">
-      <c r="E39" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="4:5">
-      <c r="E40" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="4:5">
-      <c r="E41" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="4:5">
-      <c r="D42" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="4:5">
-      <c r="D43" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="4:5" ht="25.5">
-      <c r="D44" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="4:5" ht="38.25">
-      <c r="E45" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="4:5" ht="25.5">
-      <c r="D46" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="4:5">
-      <c r="E47" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" spans="4:5">
-      <c r="E48" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="49" spans="3:5">
       <c r="E49" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5">
+      <c r="E50" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5">
+      <c r="D51" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5">
+      <c r="D52" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="50" spans="3:5">
-      <c r="D50" s="12" t="s">
+      <c r="E52" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E50" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5">
-      <c r="D51" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="3:5">
-      <c r="C52" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E52" s="7" t="s">
+    </row>
+    <row r="53" spans="3:5">
+      <c r="C53" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" ht="115.5" customHeight="1">
+      <c r="C54" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5">
+      <c r="E55" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" ht="75">
+      <c r="E56" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="3:5" ht="115.5" customHeight="1">
-      <c r="C53" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="3:5">
-      <c r="E54" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="3:5" ht="51">
-      <c r="E55" s="7" t="s">
+    <row r="57" spans="3:5" ht="75">
+      <c r="E57" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" ht="30">
+      <c r="D58" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="56" spans="3:5" ht="63.75">
-      <c r="E56" s="7" t="s">
+      <c r="E58" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" ht="45">
+      <c r="E59" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" ht="30">
+      <c r="D60" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="7" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="3:5">
-      <c r="D57" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="3:5" ht="38.25">
-      <c r="E58" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="3:5" ht="25.5">
-      <c r="D59" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="3:5">
-      <c r="E60" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="61" spans="3:5">
       <c r="E61" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="3:5">
       <c r="E62" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5">
+      <c r="E63" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5">
+      <c r="D64" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5">
+      <c r="D65" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="63" spans="3:5">
-      <c r="D63" s="12" t="s">
+      <c r="E65" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E63" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="64" spans="3:5">
-      <c r="D64" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="65" spans="4:5" ht="25.5">
-      <c r="D65" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="4:5" ht="38.25">
+    </row>
+    <row r="66" spans="4:5" ht="45">
+      <c r="D66" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="E66" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="67" spans="4:5" ht="25.5">
-      <c r="D67" s="12" t="s">
-        <v>39</v>
-      </c>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" ht="45">
       <c r="E67" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="68" spans="4:5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5" ht="30">
+      <c r="D68" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="E68" s="7" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="4:5">
       <c r="E69" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="4:5">
       <c r="E70" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5">
+      <c r="E71" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5">
+      <c r="D72" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5">
+      <c r="D73" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="71" spans="4:5">
-      <c r="D71" s="12" t="s">
+      <c r="E73" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E71" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="72" spans="4:5">
-      <c r="D72" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="73" spans="4:5" ht="25.5">
-      <c r="D73" s="12" t="s">
+    </row>
+    <row r="74" spans="4:5" ht="30">
+      <c r="D74" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5" ht="45">
+      <c r="E75" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="4:5" ht="30">
+      <c r="D76" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E76" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="74" spans="4:5" ht="38.25">
-      <c r="E74" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="75" spans="4:5" ht="25.5">
-      <c r="D75" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="76" spans="4:5">
-      <c r="E76" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="77" spans="4:5">
       <c r="E77" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78" spans="4:5">
       <c r="E78" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="4:5">
+      <c r="E79" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="4:5">
+      <c r="D80" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5">
+      <c r="D81" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="79" spans="4:5">
-      <c r="D79" s="12" t="s">
+      <c r="E81" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E79" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="80" spans="4:5">
-      <c r="D80" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="81" spans="3:5" ht="25.5">
-      <c r="D81" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="82" spans="3:5" ht="38.25">
+    </row>
+    <row r="82" spans="3:5" ht="45">
+      <c r="D82" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="E82" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="83" spans="3:5" ht="25.5">
-      <c r="D83" s="12" t="s">
-        <v>39</v>
-      </c>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" ht="45">
       <c r="E83" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="84" spans="3:5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" ht="30">
+      <c r="D84" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="E84" s="7" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="3:5">
       <c r="E85" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" spans="3:5">
       <c r="E86" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5">
+      <c r="E87" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5">
+      <c r="D88" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5">
+      <c r="D89" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="87" spans="3:5">
-      <c r="D87" s="12" t="s">
+      <c r="E89" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E87" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="88" spans="3:5">
-      <c r="D88" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="89" spans="3:5">
-      <c r="C89" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="90" spans="3:5" ht="101.25" customHeight="1">
-      <c r="C90" s="12" t="s">
+    </row>
+    <row r="90" spans="3:5">
+      <c r="C90" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" ht="101.25" customHeight="1">
+      <c r="C91" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5">
+      <c r="E92" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5" ht="75">
+      <c r="E93" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="91" spans="3:5">
-      <c r="E91" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="92" spans="3:5" ht="51">
-      <c r="E92" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="93" spans="3:5" ht="51">
-      <c r="E93" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="94" spans="3:5" ht="25.5">
-      <c r="D94" s="12" t="s">
-        <v>71</v>
-      </c>
+    <row r="94" spans="3:5" ht="75">
       <c r="E94" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="95" spans="3:5" ht="38.25">
+    <row r="95" spans="3:5" ht="30">
+      <c r="D95" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="E95" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="96" spans="3:5" ht="25.5">
-      <c r="D96" s="12" t="s">
-        <v>39</v>
-      </c>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5" ht="45">
       <c r="E96" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="97" spans="3:5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5" ht="30">
+      <c r="D97" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="E97" s="7" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
     </row>
     <row r="98" spans="3:5">
       <c r="E98" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99" spans="3:5">
       <c r="E99" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100" spans="3:5">
+      <c r="E100" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="3:5">
+      <c r="D101" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5">
+      <c r="D102" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="100" spans="3:5">
-      <c r="D100" s="12" t="s">
+      <c r="E102" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E100" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="101" spans="3:5">
-      <c r="D101" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="102" spans="3:5">
-      <c r="D102" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="103" spans="3:5" ht="38.25">
+    </row>
+    <row r="103" spans="3:5" ht="30">
+      <c r="D103" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="E103" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="104" spans="3:5" ht="25.5">
-      <c r="D104" s="12" t="s">
-        <v>39</v>
-      </c>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104" spans="3:5" ht="45">
       <c r="E104" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="105" spans="3:5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="105" spans="3:5" ht="30">
+      <c r="D105" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="E105" s="7" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
     </row>
     <row r="106" spans="3:5">
       <c r="E106" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107" spans="3:5">
       <c r="E107" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="108" spans="3:5">
+      <c r="E108" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109" spans="3:5">
+      <c r="D109" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="110" spans="3:5">
+      <c r="D110" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="108" spans="3:5">
-      <c r="D108" s="12" t="s">
+      <c r="E110" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E108" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="109" spans="3:5">
-      <c r="D109" s="12" t="s">
+    </row>
+    <row r="111" spans="3:5">
+      <c r="C111" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="112" spans="3:5">
+      <c r="C112" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="45">
+      <c r="E113" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="D114" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="E115" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="E116" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="E117" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="D118" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E118" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E109" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="110" spans="3:5">
-      <c r="C110" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="111" spans="3:5">
-      <c r="C111" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E111" s="7" t="s">
+    </row>
+    <row r="119" spans="1:10">
+      <c r="D119" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="C120" s="10" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="112" spans="3:5" ht="38.25">
-      <c r="E112" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="113" spans="4:5">
-      <c r="D113" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E113" s="7" t="s">
+      <c r="E120" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="114" spans="4:5">
-      <c r="E114" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="115" spans="4:5">
-      <c r="E115" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="116" spans="4:5">
-      <c r="E116" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="117" spans="4:5">
-      <c r="D117" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E117" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="118" spans="4:5">
-      <c r="D118" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>45</v>
-      </c>
+    <row r="121" spans="1:10">
+      <c r="A121" s="23"/>
+      <c r="B121" s="24"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="25"/>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="C122" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="30">
+      <c r="E123" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="E124" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="E125" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B126" s="21"/>
+      <c r="C126" s="21"/>
+      <c r="D126" s="21"/>
+      <c r="E126" s="21"/>
+      <c r="F126" s="21"/>
+      <c r="G126" s="22"/>
+    </row>
+    <row r="127" spans="1:10" s="18" customFormat="1" ht="75">
+      <c r="A127" s="10"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D127" s="10"/>
+      <c r="E127" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
+      <c r="I127" s="10"/>
+      <c r="J127" s="17"/>
+    </row>
+    <row r="128" spans="1:10" s="18" customFormat="1">
+      <c r="A128" s="10"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D128" s="10"/>
+      <c r="E128" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="10"/>
+      <c r="I128" s="10"/>
+      <c r="J128" s="17"/>
+    </row>
+    <row r="129" spans="1:10" s="18" customFormat="1" ht="45">
+      <c r="A129" s="10"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D129" s="10"/>
+      <c r="E129" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="10"/>
+      <c r="I129" s="10"/>
+      <c r="J129" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A126:G126"/>
+    <mergeCell ref="A121:G121"/>
+    <mergeCell ref="A30:G30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
